--- a/小程序/名片小程序/名片工作安排.xlsx
+++ b/小程序/名片小程序/名片工作安排.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eileen\WorkData\小程序\名片小程序\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\Eileen\Documents\GitHub\yktDocs\小程序\名片小程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -318,7 +318,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -576,7 +576,7 @@
   <dimension ref="B2:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/小程序/名片小程序/名片工作安排.xlsx
+++ b/小程序/名片小程序/名片工作安排.xlsx
@@ -207,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,6 +216,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C23"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -586,27 +592,27 @@
     <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:5">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:5">
       <c r="B3" s="2">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:5">
       <c r="B4" s="2">
         <v>16</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="2">
         <v>17</v>
       </c>
@@ -614,75 +620,81 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:5">
       <c r="B6" s="2">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:5">
       <c r="B7" s="2">
         <v>19</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="2:3">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="2">
         <v>20</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="2">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="2">
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="2">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="2">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="2">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="2">
         <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="2:3">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="2">
         <v>31</v>
       </c>
@@ -690,7 +702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:5">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -702,7 +714,7 @@
       <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -710,7 +722,7 @@
       <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="2:3">
       <c r="C19" s="1"/>
@@ -748,25 +760,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:4">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -777,7 +789,7 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="4"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
@@ -786,7 +798,7 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="4"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
@@ -795,7 +807,7 @@
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="4"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
@@ -804,7 +816,7 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -815,7 +827,7 @@
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="4"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
@@ -824,7 +836,7 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="4"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
@@ -833,7 +845,7 @@
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="4"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
@@ -842,7 +854,7 @@
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="4"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -851,7 +863,7 @@
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="4"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
@@ -860,7 +872,7 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="4"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
@@ -869,7 +881,7 @@
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="4"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="2" t="s">
         <v>5</v>
       </c>
@@ -878,7 +890,7 @@
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -889,7 +901,7 @@
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="4"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
@@ -898,7 +910,7 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="4"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="2" t="s">
         <v>10</v>
       </c>
@@ -907,7 +919,7 @@
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="4"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
@@ -916,7 +928,7 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -927,7 +939,7 @@
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="4"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
@@ -936,19 +948,19 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="2">
         <f>SUM(D2:D21)</f>
         <v>16</v>
